--- a/4.Analysis/Data/raw/day2/phase_008/invalid_day2_phase_008.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_008/invalid_day2_phase_008.xlsx
@@ -12,159 +12,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ParticipantID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	618772915025870848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	宋远</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-12-25 18:52:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时7分49秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.224.141.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 非常好	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">记忆力，图形理解	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27</t>
+    <t xml:space="preserve">con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_rt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_count2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct_count2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct_recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self_recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend_recognition</t>
   </si>
   <si>
     <t xml:space="preserve">phase_008_subj_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
   </si>
 </sst>
 </file>
@@ -581,92 +551,120 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="n">
+        <v>854.375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4350</v>
+      </c>
+      <c r="E2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2" t="n">
+        <v>485.054866247562</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" t="n">
+        <v>39</v>
+      </c>
+      <c r="U2" t="n">
+        <v>41</v>
+      </c>
+      <c r="V2" t="n">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="n">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
+      <c r="X2" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.475</v>
       </c>
       <c r="AB2" t="n">
-        <v>203</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.50625</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.487654320987654</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.475308641975309</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0123456790123457</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0309806544389366</v>
+      </c>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
